--- a/public/sites.xlsx
+++ b/public/sites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
   <si>
     <t>facility_id</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>TUNGAN MARO</t>
+  </si>
+  <si>
+    <t>YARBESSE WARDttt</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -749,47 +755,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -797,1151 +806,1301 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>697</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>697</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>694</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>693</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>693</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>694</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>693</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>693</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>697</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>694</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>694</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>697</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>694</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>694</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>697</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>31</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>693</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>693</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>693</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>37</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>697</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>7</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>39</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>697</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>40</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>697</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>7</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>42</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>756</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>8</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>43</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>756</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>45</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>756</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>47</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>756</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>49</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>756</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>51</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>761</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>52</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>761</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>10</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>54</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>761</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>10</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>56</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>761</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>10</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>58</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>761</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>11</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>60</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>753</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>11</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>62</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>753</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>11</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>753</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>12</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>753</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>12</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>753</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>12</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>70</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>753</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>13</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>72</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>753</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>13</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>73</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>753</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>13</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>75</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>753</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>13</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>76</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>756</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>13</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>77</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>756</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>13</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>78</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>756</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>13</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>79</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>756</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>81</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>761</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>82</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>761</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>14</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>83</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
         <v>761</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>14</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>84</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>761</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>85</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>761</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>14</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>86</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>761</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>14</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>88</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1950,21 +2109,24 @@
         <v>1</v>
       </c>
       <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>435</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>15</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>89</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1973,21 +2135,24 @@
         <v>1</v>
       </c>
       <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>435</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>15</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>91</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1996,21 +2161,24 @@
         <v>1</v>
       </c>
       <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>435</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>16</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>93</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2019,21 +2187,24 @@
         <v>1</v>
       </c>
       <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>435</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>16</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>94</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2042,21 +2213,24 @@
         <v>1</v>
       </c>
       <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>435</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>17</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>96</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2065,21 +2239,24 @@
         <v>1</v>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>435</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>17</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>98</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2088,21 +2265,24 @@
         <v>1</v>
       </c>
       <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>438</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>18</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>100</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2111,21 +2291,24 @@
         <v>1</v>
       </c>
       <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>438</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>18</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>102</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2134,21 +2317,24 @@
         <v>1</v>
       </c>
       <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
         <v>438</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>19</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>104</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2157,21 +2343,24 @@
         <v>1</v>
       </c>
       <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
         <v>438</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>19</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>106</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2180,21 +2369,24 @@
         <v>1</v>
       </c>
       <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>438</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>20</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>108</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2203,21 +2395,24 @@
         <v>1</v>
       </c>
       <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
         <v>450</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>20</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>110</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2226,21 +2421,24 @@
         <v>1</v>
       </c>
       <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>450</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>21</v>
-      </c>
-      <c r="F64" t="s">
-        <v>112</v>
       </c>
       <c r="G64" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2249,21 +2447,24 @@
         <v>1</v>
       </c>
       <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>450</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>21</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>113</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2272,21 +2473,24 @@
         <v>1</v>
       </c>
       <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
         <v>450</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>22</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>115</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2295,249 +2499,283 @@
         <v>1</v>
       </c>
       <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
         <v>450</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>22</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>117</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
         <v>435</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>23</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>119</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
         <v>435</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>23</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>120</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
         <v>438</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>23</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>122</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
         <v>438</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>23</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>124</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
         <v>438</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>23</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>126</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
         <v>438</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>23</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>128</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
         <v>450</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>23</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>130</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
         <v>450</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>23</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>132</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
         <v>450</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>23</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>134</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
         <v>450</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>23</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>135</v>
       </c>
-      <c r="G77" t="s">
-        <v>133</v>
+      <c r="H77" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>